--- a/data/MarCom_Responses.xlsx
+++ b/data/MarCom_Responses.xlsx
@@ -25,7 +25,7 @@
     <t>Person completing this form:</t>
   </si>
   <si>
-    <t>Activity duration (hours):</t>
+    <t>Activity Duration (hours):</t>
   </si>
   <si>
     <t>Purpose of the activity (please only list one):</t>
